--- a/resources/test_cases_API/test_cases_API.xlsx
+++ b/resources/test_cases_API/test_cases_API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Vodafone Task\Assessment\resources\test_cases_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFBE231-CE95-4CE7-A7B0-CA45F3837883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B92B75-D218-4076-96C6-650BF015E800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-36" windowWidth="23256" windowHeight="12456" xr2:uid="{F4D4091C-2762-43D6-B2AC-4D3173E53A0F}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
     <col min="4" max="4" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="58.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
